--- a/results/df-fa-six-cluster-rank.xlsx
+++ b/results/df-fa-six-cluster-rank.xlsx
@@ -439,8 +439,10 @@
       <c r="I2">
         <v>0.3939110667789774</v>
       </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -473,8 +475,10 @@
       <c r="I3">
         <v>1.20287396142805</v>
       </c>
-      <c r="J3">
-        <v>2</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -507,8 +511,10 @@
       <c r="I4">
         <v>0.2828686958098909</v>
       </c>
-      <c r="J4">
-        <v>1</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -541,8 +547,10 @@
       <c r="I5">
         <v>1.110405541403501</v>
       </c>
-      <c r="J5">
-        <v>2</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -575,8 +583,10 @@
       <c r="I6">
         <v>2.208567973744645</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -609,8 +619,10 @@
       <c r="I7">
         <v>3.385040214739064</v>
       </c>
-      <c r="J7">
-        <v>4</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -643,8 +655,10 @@
       <c r="I8">
         <v>0.3460475994008219</v>
       </c>
-      <c r="J8">
-        <v>1</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -677,8 +691,10 @@
       <c r="I9">
         <v>1.883208884183238</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -711,8 +727,10 @@
       <c r="I10">
         <v>0.3842734406378769</v>
       </c>
-      <c r="J10">
-        <v>1</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -745,8 +763,10 @@
       <c r="I11">
         <v>3.661827309638595</v>
       </c>
-      <c r="J11">
-        <v>5</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -779,8 +799,10 @@
       <c r="I12">
         <v>3.309091455220953</v>
       </c>
-      <c r="J12">
-        <v>4</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -813,8 +835,10 @@
       <c r="I13">
         <v>0.3848838348266834</v>
       </c>
-      <c r="J13">
-        <v>1</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -847,8 +871,10 @@
       <c r="I14">
         <v>0.2110765219733026</v>
       </c>
-      <c r="J14">
-        <v>1</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -881,8 +907,10 @@
       <c r="I15">
         <v>1.182355624968384</v>
       </c>
-      <c r="J15">
-        <v>2</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -915,8 +943,10 @@
       <c r="I16">
         <v>2.047836020891648</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -949,8 +979,10 @@
       <c r="I17">
         <v>1.934134175813876</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -983,8 +1015,10 @@
       <c r="I18">
         <v>3.739979109746076</v>
       </c>
-      <c r="J18">
-        <v>5</v>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1017,8 +1051,10 @@
       <c r="I19">
         <v>1.874777143810673</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1051,8 +1087,10 @@
       <c r="I20">
         <v>4.823368146415493</v>
       </c>
-      <c r="J20">
-        <v>6</v>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1085,8 +1123,10 @@
       <c r="I21">
         <v>1.095992299959406</v>
       </c>
-      <c r="J21">
-        <v>2</v>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1119,8 +1159,10 @@
       <c r="I22">
         <v>0.3928208605886314</v>
       </c>
-      <c r="J22">
-        <v>1</v>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1153,8 +1195,10 @@
       <c r="I23">
         <v>1.904275498097463</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1187,8 +1231,10 @@
       <c r="I24">
         <v>3.851734989100415</v>
       </c>
-      <c r="J24">
-        <v>5</v>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1221,8 +1267,10 @@
       <c r="I25">
         <v>1.923291176679143</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1255,8 +1303,10 @@
       <c r="I26">
         <v>1.681401788255082</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1289,8 +1339,10 @@
       <c r="I27">
         <v>0.4069417005135729</v>
       </c>
-      <c r="J27">
-        <v>1</v>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1323,8 +1375,10 @@
       <c r="I28">
         <v>4.931427119153362</v>
       </c>
-      <c r="J28">
-        <v>6</v>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1357,8 +1411,10 @@
       <c r="I29">
         <v>0.6101965000240439</v>
       </c>
-      <c r="J29">
-        <v>1</v>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1391,8 +1447,10 @@
       <c r="I30">
         <v>5.062856053020989</v>
       </c>
-      <c r="J30">
-        <v>6</v>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1425,8 +1483,10 @@
       <c r="I31">
         <v>3.684234896481646</v>
       </c>
-      <c r="J31">
-        <v>5</v>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1459,8 +1519,10 @@
       <c r="I32">
         <v>5.013922337399276</v>
       </c>
-      <c r="J32">
-        <v>6</v>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1493,8 +1555,10 @@
       <c r="I33">
         <v>3.06139723728897</v>
       </c>
-      <c r="J33">
-        <v>4</v>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1527,8 +1591,10 @@
       <c r="I34">
         <v>5.167269244935323</v>
       </c>
-      <c r="J34">
-        <v>6</v>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1561,8 +1627,10 @@
       <c r="I35">
         <v>5.046854347300204</v>
       </c>
-      <c r="J35">
-        <v>6</v>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1595,8 +1663,10 @@
       <c r="I36">
         <v>2.007490467092623</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1629,8 +1699,10 @@
       <c r="I37">
         <v>1.933019233967531</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1663,8 +1735,10 @@
       <c r="I38">
         <v>1.714756856517779</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1697,8 +1771,10 @@
       <c r="I39">
         <v>0.3064800722960646</v>
       </c>
-      <c r="J39">
-        <v>1</v>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1731,8 +1807,10 @@
       <c r="I40">
         <v>3.691764439365739</v>
       </c>
-      <c r="J40">
-        <v>5</v>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1765,8 +1843,10 @@
       <c r="I41">
         <v>0.2984355748095606</v>
       </c>
-      <c r="J41">
-        <v>1</v>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1799,8 +1879,10 @@
       <c r="I42">
         <v>5.15997137718082</v>
       </c>
-      <c r="J42">
-        <v>6</v>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1833,8 +1915,10 @@
       <c r="I43">
         <v>0.1401088638199757</v>
       </c>
-      <c r="J43">
-        <v>1</v>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1867,8 +1951,10 @@
       <c r="I44">
         <v>0.1620264842838561</v>
       </c>
-      <c r="J44">
-        <v>1</v>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1901,8 +1987,10 @@
       <c r="I45">
         <v>3.084493113341301</v>
       </c>
-      <c r="J45">
-        <v>4</v>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1935,8 +2023,10 @@
       <c r="I46">
         <v>1.240819683445478</v>
       </c>
-      <c r="J46">
-        <v>2</v>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1969,8 +2059,10 @@
       <c r="I47">
         <v>0.2307528805034125</v>
       </c>
-      <c r="J47">
-        <v>1</v>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2003,8 +2095,10 @@
       <c r="I48">
         <v>2.952290271600277</v>
       </c>
-      <c r="J48">
-        <v>4</v>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2037,8 +2131,10 @@
       <c r="I49">
         <v>1.954016182504461</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2071,8 +2167,10 @@
       <c r="I50">
         <v>2.991280398232764</v>
       </c>
-      <c r="J50">
-        <v>4</v>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2105,8 +2203,10 @@
       <c r="I51">
         <v>2.012555666645426</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2139,8 +2239,10 @@
       <c r="I52">
         <v>0.104443245440055</v>
       </c>
-      <c r="J52">
-        <v>1</v>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2173,8 +2275,10 @@
       <c r="I53">
         <v>0.357256328602811</v>
       </c>
-      <c r="J53">
-        <v>1</v>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2207,8 +2311,10 @@
       <c r="I54">
         <v>3.341902628756198</v>
       </c>
-      <c r="J54">
-        <v>4</v>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2241,8 +2347,10 @@
       <c r="I55">
         <v>3.873907202183209</v>
       </c>
-      <c r="J55">
-        <v>5</v>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2275,8 +2383,10 @@
       <c r="I56">
         <v>1.081000387154241</v>
       </c>
-      <c r="J56">
-        <v>2</v>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2309,8 +2419,10 @@
       <c r="I57">
         <v>5.056637481516421</v>
       </c>
-      <c r="J57">
-        <v>6</v>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2343,8 +2455,10 @@
       <c r="I58">
         <v>3.717160526610017</v>
       </c>
-      <c r="J58">
-        <v>5</v>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2377,8 +2491,10 @@
       <c r="I59">
         <v>1.601387183767393</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2411,8 +2527,10 @@
       <c r="I60">
         <v>1.972906604512866</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2445,8 +2563,10 @@
       <c r="I61">
         <v>0.2047182749449852</v>
       </c>
-      <c r="J61">
-        <v>1</v>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2479,8 +2599,10 @@
       <c r="I62">
         <v>2.071772019124439</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2513,8 +2635,10 @@
       <c r="I63">
         <v>2.115543583350764</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2547,8 +2671,10 @@
       <c r="I64">
         <v>0.3064954271821869</v>
       </c>
-      <c r="J64">
-        <v>1</v>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2581,8 +2707,10 @@
       <c r="I65">
         <v>2.138275373089</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2615,8 +2743,10 @@
       <c r="I66">
         <v>0.2552188870549326</v>
       </c>
-      <c r="J66">
-        <v>1</v>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2649,8 +2779,10 @@
       <c r="I67">
         <v>5.075774733979404</v>
       </c>
-      <c r="J67">
-        <v>6</v>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2683,8 +2815,10 @@
       <c r="I68">
         <v>2.071434276050229</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2717,8 +2851,10 @@
       <c r="I69">
         <v>0.4875244277380726</v>
       </c>
-      <c r="J69">
-        <v>1</v>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2751,8 +2887,10 @@
       <c r="I70">
         <v>1.312535954329411</v>
       </c>
-      <c r="J70">
-        <v>2</v>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2785,8 +2923,10 @@
       <c r="I71">
         <v>2.176880140473539</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -2819,8 +2959,10 @@
       <c r="I72">
         <v>3.208357394939517</v>
       </c>
-      <c r="J72">
-        <v>4</v>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -2853,8 +2995,10 @@
       <c r="I73">
         <v>0.302426525433203</v>
       </c>
-      <c r="J73">
-        <v>1</v>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -2887,8 +3031,10 @@
       <c r="I74">
         <v>0.4594980919546121</v>
       </c>
-      <c r="J74">
-        <v>1</v>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/results/df-fa-six-cluster-rank.xlsx
+++ b/results/df-fa-six-cluster-rank.xlsx
@@ -437,7 +437,7 @@
         <v>1.244032880003122</v>
       </c>
       <c r="I2">
-        <v>0.3939110667789774</v>
+        <v>0.425256688476638</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
         <v>1.064110277932489</v>
       </c>
       <c r="I3">
-        <v>1.20287396142805</v>
+        <v>1.172065303356234</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         <v>1.355075250972208</v>
       </c>
       <c r="I4">
-        <v>0.2828686958098909</v>
+        <v>0.3142143175075516</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         <v>1.156578697957039</v>
       </c>
       <c r="I5">
-        <v>1.110405541403501</v>
+        <v>1.079596883331685</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -581,11 +581,11 @@
         <v>1.048253853522524</v>
       </c>
       <c r="I6">
-        <v>2.208567973744645</v>
+        <v>1.187921727766199</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -617,11 +617,11 @@
         <v>0.7031505515788568</v>
       </c>
       <c r="I7">
-        <v>3.385040214739064</v>
+        <v>1.533025029709866</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
         <v>1.291896347381278</v>
       </c>
       <c r="I8">
-        <v>0.3460475994008219</v>
+        <v>0.3773932210984825</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -689,11 +689,11 @@
         <v>1.373612943083931</v>
       </c>
       <c r="I9">
-        <v>1.883208884183238</v>
+        <v>0.8625626382047917</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
         <v>1.253670506144222</v>
       </c>
       <c r="I10">
-        <v>0.3842734406378769</v>
+        <v>0.4156190623355376</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -761,11 +761,11 @@
         <v>1.545381780625466</v>
       </c>
       <c r="I11">
-        <v>3.661827309638595</v>
+        <v>0.1239077878542938</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -797,11 +797,11 @@
         <v>0.7790993110969673</v>
       </c>
       <c r="I12">
-        <v>3.309091455220953</v>
+        <v>1.457076270191756</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
         <v>1.253060111955416</v>
       </c>
       <c r="I13">
-        <v>0.3848838348266834</v>
+        <v>0.4162294565243441</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>1.426867424808797</v>
       </c>
       <c r="I14">
-        <v>0.2110765219733026</v>
+        <v>0.2424221436709633</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>1.084628614392155</v>
       </c>
       <c r="I15">
-        <v>1.182355624968384</v>
+        <v>1.151546966896568</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -941,11 +941,11 @@
         <v>1.208985806375521</v>
       </c>
       <c r="I16">
-        <v>2.047836020891648</v>
+        <v>1.027189774913202</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -977,11 +977,11 @@
         <v>1.322687651453294</v>
       </c>
       <c r="I17">
-        <v>1.934134175813876</v>
+        <v>0.3466019170264665</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1013,11 +1013,11 @@
         <v>1.467229980517985</v>
       </c>
       <c r="I18">
-        <v>3.739979109746076</v>
+        <v>0.2020595879617753</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1049,11 +1049,11 @@
         <v>1.382044683456496</v>
       </c>
       <c r="I19">
-        <v>1.874777143810673</v>
+        <v>0.2872448850232638</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1085,11 +1085,11 @@
         <v>1.260178836938515</v>
       </c>
       <c r="I20">
-        <v>4.823368146415493</v>
+        <v>0.9759967443502087</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>1.170991939401133</v>
       </c>
       <c r="I21">
-        <v>1.095992299959406</v>
+        <v>1.06518364188759</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1157,11 +1157,11 @@
         <v>1.245123086193468</v>
       </c>
       <c r="I22">
-        <v>0.3928208605886314</v>
+        <v>0.9910524950952553</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1193,11 +1193,11 @@
         <v>1.352546329169706</v>
       </c>
       <c r="I23">
-        <v>1.904275498097463</v>
+        <v>0.3167432393100544</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1229,11 +1229,11 @@
         <v>1.355474101163645</v>
       </c>
       <c r="I24">
-        <v>3.851734989100415</v>
+        <v>0.3138154673161147</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1265,11 +1265,11 @@
         <v>1.333530650588026</v>
       </c>
       <c r="I25">
-        <v>1.923291176679143</v>
+        <v>0.9026449307006976</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1301,11 +1301,11 @@
         <v>1.575420039012087</v>
       </c>
       <c r="I26">
-        <v>1.681401788255082</v>
+        <v>0.09386952946767324</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
         <v>1.231002246268526</v>
       </c>
       <c r="I27">
-        <v>0.4069417005135729</v>
+        <v>0.4382873222112336</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1373,11 +1373,11 @@
         <v>1.152119864200645</v>
       </c>
       <c r="I28">
-        <v>4.931427119153362</v>
+        <v>1.084055717088078</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
         <v>1.027747446758055</v>
       </c>
       <c r="I29">
-        <v>0.6101965000240439</v>
+        <v>0.6415421217217046</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1445,11 +1445,11 @@
         <v>1.020690930333019</v>
       </c>
       <c r="I30">
-        <v>5.062856053020989</v>
+        <v>1.215484650955704</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1481,11 +1481,11 @@
         <v>1.522974193782415</v>
       </c>
       <c r="I31">
-        <v>3.684234896481646</v>
+        <v>0.1463153746973449</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1517,11 +1517,11 @@
         <v>1.069624645954732</v>
       </c>
       <c r="I32">
-        <v>5.013922337399276</v>
+        <v>1.166550935333991</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1553,11 +1553,11 @@
         <v>1.02679352902895</v>
       </c>
       <c r="I33">
-        <v>3.06139723728897</v>
+        <v>1.209382052259773</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1589,11 +1589,11 @@
         <v>0.9162777384186843</v>
       </c>
       <c r="I34">
-        <v>5.167269244935323</v>
+        <v>1.319897842870039</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1625,11 +1625,11 @@
         <v>1.036692636053803</v>
       </c>
       <c r="I35">
-        <v>5.046854347300204</v>
+        <v>1.199482945234921</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1661,11 +1661,11 @@
         <v>1.249331360174546</v>
       </c>
       <c r="I36">
-        <v>2.007490467092623</v>
+        <v>0.4199582083052138</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1697,11 +1697,11 @@
         <v>1.323802593299638</v>
       </c>
       <c r="I37">
-        <v>1.933019233967531</v>
+        <v>0.912372987989085</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1733,11 +1733,11 @@
         <v>1.54206497074939</v>
       </c>
       <c r="I38">
-        <v>1.714756856517779</v>
+        <v>0.1272245977303701</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
         <v>1.331463874486035</v>
       </c>
       <c r="I39">
-        <v>0.3064800722960646</v>
+        <v>0.3378256939937252</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1805,11 +1805,11 @@
         <v>1.515444650898322</v>
       </c>
       <c r="I40">
-        <v>3.691764439365739</v>
+        <v>0.1538449175814383</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
         <v>1.339508371972539</v>
       </c>
       <c r="I41">
-        <v>0.2984355748095606</v>
+        <v>0.3297811965072213</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1877,11 +1877,11 @@
         <v>0.9235756061731875</v>
       </c>
       <c r="I42">
-        <v>5.15997137718082</v>
+        <v>1.312599975115536</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
         <v>1.497835082962124</v>
       </c>
       <c r="I43">
-        <v>0.1401088638199757</v>
+        <v>0.1714544855176363</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>1.475917462498243</v>
       </c>
       <c r="I44">
-        <v>0.1620264842838561</v>
+        <v>0.1933721059815168</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -1985,11 +1985,11 @@
         <v>1.00369765297662</v>
       </c>
       <c r="I45">
-        <v>3.084493113341301</v>
+        <v>1.232477928312104</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
         <v>1.026164555915062</v>
       </c>
       <c r="I46">
-        <v>1.240819683445478</v>
+        <v>1.210011025373662</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>1.407191066278687</v>
       </c>
       <c r="I47">
-        <v>0.2307528805034125</v>
+        <v>0.2620985022010731</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2093,11 +2093,11 @@
         <v>1.135900494717643</v>
       </c>
       <c r="I48">
-        <v>2.952290271600277</v>
+        <v>0.533389073762117</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2129,11 +2129,11 @@
         <v>1.302805644762708</v>
       </c>
       <c r="I49">
-        <v>1.954016182504461</v>
+        <v>0.9333699365260151</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2165,11 +2165,11 @@
         <v>1.096910368085156</v>
       </c>
       <c r="I50">
-        <v>2.991280398232764</v>
+        <v>1.139265213203567</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2201,11 +2201,11 @@
         <v>1.244266160621743</v>
       </c>
       <c r="I51">
-        <v>2.012555666645426</v>
+        <v>0.9919094206669803</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
         <v>1.533500701342044</v>
       </c>
       <c r="I52">
-        <v>0.104443245440055</v>
+        <v>0.1357888671377157</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>1.280687618179288</v>
       </c>
       <c r="I53">
-        <v>0.357256328602811</v>
+        <v>0.3886019503004716</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2309,11 +2309,11 @@
         <v>0.7462881375617221</v>
       </c>
       <c r="I54">
-        <v>3.341902628756198</v>
+        <v>1.489887443727001</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2345,11 +2345,11 @@
         <v>1.333301888080852</v>
       </c>
       <c r="I55">
-        <v>3.873907202183209</v>
+        <v>0.3359876803989081</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
         <v>1.185983852206298</v>
       </c>
       <c r="I56">
-        <v>1.081000387154241</v>
+        <v>1.050191729082425</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2417,11 +2417,11 @@
         <v>1.026909501837586</v>
       </c>
       <c r="I57">
-        <v>5.056637481516421</v>
+        <v>1.209266079451137</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2453,11 +2453,11 @@
         <v>1.490048563654044</v>
       </c>
       <c r="I58">
-        <v>3.717160526610017</v>
+        <v>0.1792410048257163</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2489,11 +2489,11 @@
         <v>1.655434643499776</v>
       </c>
       <c r="I59">
-        <v>1.601387183767393</v>
+        <v>0.01385492497998397</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2525,11 +2525,11 @@
         <v>1.283915222754303</v>
       </c>
       <c r="I60">
-        <v>1.972906604512866</v>
+        <v>0.9522603585344203</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
         <v>1.433225671837114</v>
       </c>
       <c r="I61">
-        <v>0.2047182749449852</v>
+        <v>0.2360638966426458</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2597,11 +2597,11 @@
         <v>1.18504980814273</v>
       </c>
       <c r="I62">
-        <v>2.071772019124439</v>
+        <v>1.051125773145993</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2633,11 +2633,11 @@
         <v>1.141278243916405</v>
       </c>
       <c r="I63">
-        <v>2.115543583350764</v>
+        <v>1.094897337372319</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
         <v>1.331448519599912</v>
       </c>
       <c r="I64">
-        <v>0.3064954271821869</v>
+        <v>0.3378410488798476</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2705,11 +2705,11 @@
         <v>1.118546454178169</v>
       </c>
       <c r="I65">
-        <v>2.138275373089</v>
+        <v>1.117629127110555</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
         <v>1.382725059727167</v>
       </c>
       <c r="I66">
-        <v>0.2552188870549326</v>
+        <v>0.2865645087525932</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2777,11 +2777,11 @@
         <v>1.007772249374602</v>
       </c>
       <c r="I67">
-        <v>5.075774733979404</v>
+        <v>1.228403331914121</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2813,11 +2813,11 @@
         <v>1.18538755121694</v>
       </c>
       <c r="I68">
-        <v>2.071434276050229</v>
+        <v>1.050788030071784</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
         <v>1.150419519044027</v>
       </c>
       <c r="I69">
-        <v>0.4875244277380726</v>
+        <v>0.5188700494357332</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>0.9544482850311288</v>
       </c>
       <c r="I70">
-        <v>1.312535954329411</v>
+        <v>1.281727296257595</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -2921,11 +2921,11 @@
         <v>1.07994168679363</v>
       </c>
       <c r="I71">
-        <v>2.176880140473539</v>
+        <v>1.156233894495093</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2957,11 +2957,11 @@
         <v>0.8798333713784037</v>
       </c>
       <c r="I72">
-        <v>3.208357394939517</v>
+        <v>1.35634220991032</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
         <v>1.335517421348896</v>
       </c>
       <c r="I73">
-        <v>0.302426525433203</v>
+        <v>0.3337721471308637</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>1.178445854827487</v>
       </c>
       <c r="I74">
-        <v>0.4594980919546121</v>
+        <v>0.4908437136522728</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
